--- a/pred_ohlcv/54_21/2019-10-26 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PPT ohlcv.xlsx
@@ -4240,7 +4240,7 @@
         <v>110155.8018877401</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>107706.7107877401</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>107740.3677003301</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>102854.3743003301</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>103142.4643003301</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>104092.4643003301</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>105588.3840003301</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>106280.6640003301</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>450837.6051330504</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>485136.6610130403</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>503052.3808330504</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>527035.6488330504</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>563504.7702608904</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>551635.9360691003</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>565666.4066996003</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>585016.4055996003</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>595254.2806546503</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>569390.1861546503</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>461053.9742881802</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>445025.7459881802</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>486688.5796881802</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>465551.0911881803</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>445505.1393200803</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>477786.3587219703</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>452019.0484353803</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>448708.6776533403</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>439521.0156718603</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>430739.5673718603</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>443148.3206670902</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>441026.8895670903</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>428493.5646670902</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>412384.6121887902</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>406511.4172697602</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>480581.8860085701</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>483823.2841085701</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>474493.9755085701</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>466931.9799085701</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>449986.0669085701</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>457159.68160857</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>461420.57270857</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>474286.08980857</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>476909.4874085701</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>478323.1574085701</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>474249.2622085701</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PPT ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>136942.89523804</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>171037.91930617</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>450837.6051330504</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>485136.6610130403</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>503052.3808330504</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>527035.6488330504</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>551635.9360691003</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>565666.4066996003</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>585016.4055996003</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>595254.2806546503</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>569390.1861546503</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>444283.2801875602</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>461053.9742881802</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>445025.7459881802</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>486688.5796881802</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>465551.0911881803</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>445505.1393200803</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>477786.3587219703</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>452019.0484353803</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>448708.6776533403</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>439521.0156718603</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>430739.5673718603</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>443148.3206670902</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>441026.8895670903</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>428493.5646670902</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>412384.6121887902</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>406511.4172697602</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>480581.8860085701</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>483823.2841085701</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>474493.9755085701</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>466931.9799085701</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>449986.0669085701</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>457159.68160857</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>461420.57270857</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>474286.08980857</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>476909.4874085701</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>478323.1574085701</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>474249.2622085701</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
